--- a/thesis_output/bnci/stats_final.xlsx
+++ b/thesis_output/bnci/stats_final.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itznu\PycharmProjects\use-of-snn\experiments\bnci_horizon_dataset_exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itznu\PycharmProjects\use-of-snn\thesis_output\bnci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49EEEF8-BD7B-49D2-BED8-063299CB3339}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07EFBD8-61AA-426E-920E-7FF2086E11DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -201,6 +201,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,6 +2526,12 @@
         <v>0.63829787234042556</v>
       </c>
     </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C48" s="15">
+        <f>MAX(C28:C47)</f>
+        <v>0.51781250000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/thesis_output/bnci/stats_final.xlsx
+++ b/thesis_output/bnci/stats_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itznu\PycharmProjects\use-of-snn\thesis_output\bnci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07EFBD8-61AA-426E-920E-7FF2086E11DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84C3F8B-0EB6-4FE1-93A4-261E74AC2B94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -183,16 +183,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,37 +1786,37 @@
       <c r="K25" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1842,57 +1836,57 @@
       <c r="E28" s="9">
         <v>2.2997259044187719E-2</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>0.49803737142575172</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="9">
         <v>0.52631578947368418</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <v>0.72812500000000002</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <v>1</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>0.55640952562004509</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <v>0.68761220825852776</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>0.50394021739130435</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>0.52309782608695654</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <v>1.9484641010221529E-2</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="11">
         <v>0.51844725214010778</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="11">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="11">
         <v>0.63984375000000004</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="11">
         <v>0.96875</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="11">
         <v>0.53346126326278664</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="11">
         <v>0.67883211678832123</v>
       </c>
     </row>
@@ -1912,57 +1906,57 @@
       <c r="E30" s="9">
         <v>2.2076191316945541E-2</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>0.51864629188900369</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>0.60606060606060608</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>0.47291666666666671</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <v>0.96614583333333337</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>0.45364315359910778</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <v>0.67824497257769656</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>0.48532608695652169</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>0.52038043478260865</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>2.0413620324920469E-2</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="11">
         <v>0.51395432899292037</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="11">
         <v>0.61111111111111116</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="11">
         <v>0.46510416666666671</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="11">
         <v>0.9609375</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="11">
         <v>0.44844955014059729</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="11">
         <v>0.67644362969752525</v>
       </c>
     </row>
@@ -1982,22 +1976,22 @@
       <c r="E32" s="9">
         <v>2.0433251345862671E-2</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>0.52887029502286542</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>0.5714285714285714</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>0.55773195876288661</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <v>0.97422680412371132</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>0.4903721890302436</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <v>0.67681289167412717</v>
       </c>
     </row>
@@ -2017,57 +2011,57 @@
       <c r="E33" s="9">
         <v>4.3296258178071492E-2</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <v>0.49958646384174488</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>0.54121863799283154</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <v>0.55838150289017352</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="9">
         <v>1</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>0.49906394104067042</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="9">
         <v>0.70182555780933065</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>0.484375</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <v>0.5625</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="11">
         <v>3.6562351614133841E-2</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="11">
         <v>0.50751101538311028</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="11">
         <v>0.56088560885608851</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="11">
         <v>0.5034682080924856</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="11">
         <v>0.93063583815028905</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="11">
         <v>0.47359230170789762</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="11">
         <v>0.68468468468468469</v>
       </c>
     </row>
@@ -2087,57 +2081,57 @@
       <c r="E35" s="9">
         <v>2.701313016643736E-2</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>0.53260171348512109</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>0.54285714285714282</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <v>0.75780346820809252</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <v>0.98843930635838151</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <v>0.60443325901942901</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <v>0.70081967213114749</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>0.51781250000000001</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <v>0.54374999999999996</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="11">
         <v>2.744351838574801E-2</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="11">
         <v>0.53540707693285383</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="11">
         <v>0.55217391304347829</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="11">
         <v>0.76242774566474003</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="11">
         <v>0.98843930635838151</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="11">
         <v>0.60963009357588194</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="11">
         <v>0.70081967213114749</v>
       </c>
     </row>
@@ -2157,22 +2151,22 @@
       <c r="E37" s="9">
         <v>1.8973045623408659E-2</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>0.53798435087791707</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>0.5714285714285714</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <v>0.50977011494252866</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="9">
         <v>0.7183908045977011</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="9">
         <v>0.51331838999396551</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <v>0.60240963855421692</v>
       </c>
     </row>
@@ -2192,57 +2186,57 @@
       <c r="E38" s="9">
         <v>2.4178279278228531E-2</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <v>0.4940738809439541</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>0.54042553191489362</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>0.66619047619047611</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="9">
         <v>1</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="9">
         <v>0.55890155521508555</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="9">
         <v>0.67092651757188493</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>0.49615384615384611</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="11">
         <v>0.54086538461538458</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="11">
         <v>2.4831988036578611E-2</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="11">
         <v>0.50128087908811614</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="11">
         <v>0.54008438818565396</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="11">
         <v>0.72904761904761906</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="11">
         <v>1</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="11">
         <v>0.58694947549597254</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="11">
         <v>0.67092651757188493</v>
       </c>
     </row>
@@ -2262,57 +2256,57 @@
       <c r="E40" s="9">
         <v>1.2539488E-2</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <v>0.49481846600000001</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <v>0.54471544699999996</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <v>0.514285714</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="9">
         <v>0.928571429</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="9">
         <v>0.44416209099999998</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="9">
         <v>0.65076661000000002</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>0.49326923099999997</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="11">
         <v>0.52403846200000004</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="11">
         <v>1.3915573000000001E-2</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="11">
         <v>0.48701338500000002</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="11">
         <v>0.54838709699999999</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="11">
         <v>0.51190476200000001</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="11">
         <v>0.93809523800000005</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="11">
         <v>0.44219717800000002</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="11">
         <v>0.65187713300000005</v>
       </c>
     </row>
@@ -2332,22 +2326,22 @@
       <c r="E42" s="9">
         <v>2.3116910139366259E-2</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <v>0.50526457879545472</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <v>0.5300546448087432</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <v>0.48867924528301893</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <v>0.75471698113207553</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="9">
         <v>0.48918437060174219</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="9">
         <v>0.61068702290076338</v>
       </c>
     </row>
@@ -2367,57 +2361,57 @@
       <c r="E43" s="9">
         <v>2.7660818193973941E-2</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="9">
         <v>0.36455108359133132</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>0.58823529411764708</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>0.69197530864197532</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <v>1</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <v>0.47326261455416802</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="9">
         <v>0.70769230769230773</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>0.50925925925925919</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <v>0.5714285714285714</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="11">
         <v>3.6648735919952338E-2</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="11">
         <v>0.3708826123041809</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="11">
         <v>0.58823529411764708</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="11">
         <v>0.62861552028218692</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="11">
         <v>1</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="11">
         <v>0.45818649225201807</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="11">
         <v>0.70769230769230773</v>
       </c>
     </row>
@@ -2437,57 +2431,57 @@
       <c r="E45" s="9">
         <v>5.9164492999999999E-2</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="9">
         <v>0.45561911399999999</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="9">
         <v>0.6</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="9">
         <v>0.39014358999999998</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="9">
         <v>0.52380952400000003</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="9">
         <v>0.41301737599999999</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K45" s="9">
         <v>0.55813953500000002</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>0.47328042300000001</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <v>0.61904761900000005</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <v>7.4170327999999994E-2</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="11">
         <v>0.46460364300000001</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="11">
         <v>0.65</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="11">
         <v>0.395784678</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="11">
         <v>0.590909091</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="11">
         <v>0.42136400400000001</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K46" s="11">
         <v>0.61904761900000005</v>
       </c>
     </row>
@@ -2507,27 +2501,27 @@
       <c r="E47" s="9">
         <v>6.3592357760634988E-2</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="9">
         <v>0.50637937459010285</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="9">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="9">
         <v>0.48535423245568171</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="9">
         <v>0.7142857142857143</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="9">
         <v>0.49153915795119713</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47" s="9">
         <v>0.63829787234042556</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="15">
+      <c r="C48" s="13">
         <f>MAX(C28:C47)</f>
         <v>0.51781250000000001</v>
       </c>
